--- a/bgmi grand final.xlsx
+++ b/bgmi grand final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\02_web devlopment\projects\BGMI_Points_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3B3CC7A-F1B0-4176-97B8-75CA73A3EA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7BAECC-F702-48AA-B953-732B216D48CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{836CB7B6-DD20-43C5-9BB0-861AB6FA99E0}"/>
+    <workbookView xWindow="11615" yWindow="0" windowWidth="14563" windowHeight="14047" xr2:uid="{836CB7B6-DD20-43C5-9BB0-861AB6FA99E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>team name</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>match 3</t>
+  </si>
+  <si>
+    <t>match 1</t>
+  </si>
+  <si>
+    <t>Total M1+M2</t>
+  </si>
+  <si>
+    <t>Final Points</t>
   </si>
 </sst>
 </file>
@@ -138,7 +150,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -454,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF72207-FABE-4570-8A37-FC2CC9829738}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -469,582 +482,1053 @@
     <col min="7" max="7" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>12</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
         <v>19</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I20" t="s">
         <v>20</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J20" t="s">
         <v>21</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="H19">
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
         <v>16</v>
       </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
+      <c r="K21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>8</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>11</v>
       </c>
-      <c r="F20">
+      <c r="H22">
         <v>9</v>
       </c>
-      <c r="G20">
+      <c r="I22">
         <v>15</v>
       </c>
-      <c r="H20">
+      <c r="J22">
         <v>24</v>
       </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
+      <c r="K22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
         <v>8</v>
       </c>
-      <c r="F21">
+      <c r="H23">
         <v>7</v>
       </c>
-      <c r="G21">
+      <c r="I23">
         <v>18</v>
       </c>
-      <c r="H21">
+      <c r="J23">
         <v>25</v>
       </c>
-      <c r="I21">
+      <c r="K23">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
         <v>14</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>20</v>
       </c>
-      <c r="F23">
+      <c r="H25">
         <v>9</v>
       </c>
-      <c r="G23">
+      <c r="I25">
         <v>17</v>
       </c>
-      <c r="H23">
+      <c r="J25">
         <v>26</v>
       </c>
-      <c r="I23">
+      <c r="K25">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="F24">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="H26">
         <v>3</v>
       </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="H24">
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
         <v>9</v>
       </c>
-      <c r="I24">
+      <c r="K26">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>2</v>
       </c>
-      <c r="H25">
+      <c r="J27">
         <v>3</v>
       </c>
-      <c r="I25">
+      <c r="K27">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="I28">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29">
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
         <v>8</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>18</v>
       </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
         <v>22</v>
       </c>
-      <c r="H29">
+      <c r="J31">
         <v>32</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>10</v>
-      </c>
-      <c r="H30">
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
         <v>15</v>
       </c>
-      <c r="I30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="K32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="D33">
         <v>7</v>
       </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
         <v>9</v>
       </c>
-      <c r="H31">
+      <c r="J33">
         <v>13</v>
       </c>
-      <c r="I31">
+      <c r="K33">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>18</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>B40+C40</f>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f>B40+H21</f>
+        <v>11</v>
+      </c>
+      <c r="I40">
+        <f>C40+I21</f>
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <f>I40+H40</f>
+        <v>17</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <f>B41+C41</f>
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <f>B41+H22</f>
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <f>C41+I22</f>
+        <v>20</v>
+      </c>
+      <c r="J41">
+        <f>I41+H41</f>
+        <v>29</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <f>B42+C42</f>
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <f>B42+H23</f>
+        <v>17</v>
+      </c>
+      <c r="I42">
+        <f>C42+I23</f>
+        <v>28</v>
+      </c>
+      <c r="J42">
+        <f>I42+H42</f>
+        <v>45</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f>C43+B43</f>
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f>B43+H24</f>
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <f>C43+I24</f>
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <f>I43+H43</f>
+        <v>12</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <f>C44+B44</f>
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <f>B44+H25</f>
+        <v>11</v>
+      </c>
+      <c r="I44">
+        <f>C44+I25</f>
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <f>I44+H44</f>
+        <v>31</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <f>B45+C45</f>
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <f>B45+H26</f>
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <f>C45+I26</f>
+        <v>11</v>
+      </c>
+      <c r="J45">
+        <f>I45+H45</f>
+        <v>14</v>
+      </c>
+      <c r="K45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <f>B46+C46</f>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f>B46+H27</f>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f>C46+I27</f>
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <f>I46+H46</f>
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>C47+B47</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>B47+H27</f>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f>C47+I28</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>I47+H47</f>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <f>C48+B48</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>B48+H29</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>C48+I29</f>
+        <v>6</v>
+      </c>
+      <c r="J48">
+        <f>I48+H48</f>
+        <v>6</v>
+      </c>
+      <c r="K48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <f>C49+B49</f>
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <f>B49+H30</f>
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <f>C49+I30</f>
+        <v>9</v>
+      </c>
+      <c r="J49">
+        <f>I49+H49</f>
+        <v>15</v>
+      </c>
+      <c r="K49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <f>C50+B50</f>
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <f>B50+H31</f>
+        <v>14</v>
+      </c>
+      <c r="I50">
+        <f>C50+I31</f>
+        <v>28</v>
+      </c>
+      <c r="J50">
+        <f>I50+H50</f>
+        <v>42</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <f>C51+B51</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f>B51+H32</f>
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <f>C51+I32</f>
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <f>I51+H51</f>
+        <v>15</v>
+      </c>
+      <c r="K51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <f>C52+B52</f>
+        <v>13</v>
+      </c>
+      <c r="H52">
+        <f>B52+H33</f>
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <f>C52+I33</f>
+        <v>16</v>
+      </c>
+      <c r="J52">
+        <f>I52+H52</f>
+        <v>26</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53">
+        <f>C53+B53</f>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f>B53+H34</f>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f>C53+I34</f>
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <f>I53+H53</f>
+        <v>5</v>
+      </c>
+      <c r="K53">
         <v>12</v>
       </c>
     </row>
